--- a/UTP/Trip Generation.xlsx
+++ b/UTP/Trip Generation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterliang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterliang/Documents/GitHub/CSX4001/UTP/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="15600" windowHeight="9980"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="15600" windowHeight="9980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Trip Production" sheetId="1" r:id="rId1"/>
@@ -28,35 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Car</t>
-  </si>
-  <si>
-    <t>Pop (person)</t>
-  </si>
-  <si>
-    <t>No. of bus routes</t>
-  </si>
-  <si>
-    <t>Trip Attraction (trip/day)</t>
-  </si>
-  <si>
-    <t>No. of schools</t>
-  </si>
-  <si>
-    <t>No. of bank branches</t>
-  </si>
-  <si>
-    <t>No. of Registered Companies</t>
-  </si>
-  <si>
-    <t>Area (km2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Area for commercial use  (km2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TP</t>
@@ -80,6 +54,34 @@
   </si>
   <si>
     <t>Bus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area_for_commercial_use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>School</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bank_branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,7 +447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -460,25 +462,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -1182,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1200,28 +1202,28 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="I1" s="2"/>
     </row>
